--- a/biology/Botanique/Harrisia/Harrisia.xlsx
+++ b/biology/Botanique/Harrisia/Harrisia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harrisia est un genre de la famille des Cactaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 juin 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 juin 2010) :
 Harrisia adscendens
 Harrisia earlei
 Harrisia pomanensis
-Selon ITIS      (8 juin 2010)[2] :
+Selon ITIS      (8 juin 2010) :
 Harrisia aboriginum Small
 Harrisia donae-antoniae M.L. Hooten
 Harrisia fragrans Small
@@ -552,7 +566,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Harrisia pomanensis
 Jusqu'à 2 m de haut, de 3 à 5 cm de diamètre, 5 à 6 côtes d'environ 2 cm de profondeur (sur un individu hydraté). Les aréoles de 4 mm sont espacées de 2 à 3 cm, épines droites rigides roses quand elles sont jeunes et grises en vieillissant.
